--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.7497404582624</v>
+        <v>37.833119</v>
       </c>
       <c r="H2">
-        <v>34.7497404582624</v>
+        <v>113.499357</v>
       </c>
       <c r="I2">
-        <v>0.2612030230048237</v>
+        <v>0.2771305381131279</v>
       </c>
       <c r="J2">
-        <v>0.2612030230048237</v>
+        <v>0.2771305381131279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.35260721635164</v>
+        <v>36.51526533333334</v>
       </c>
       <c r="N2">
-        <v>1.35260721635164</v>
+        <v>109.545796</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9971632597677756</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9971632597677755</v>
       </c>
       <c r="Q2">
-        <v>47.00274971019227</v>
+        <v>1381.486378672575</v>
       </c>
       <c r="R2">
-        <v>47.00274971019227</v>
+        <v>12433.37740805317</v>
       </c>
       <c r="S2">
-        <v>0.2612030230048237</v>
+        <v>0.2763443907660844</v>
       </c>
       <c r="T2">
-        <v>0.2612030230048237</v>
+        <v>0.2763443907660844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.7553337948869</v>
+        <v>37.833119</v>
       </c>
       <c r="H3">
-        <v>63.7553337948869</v>
+        <v>113.499357</v>
       </c>
       <c r="I3">
-        <v>0.4792290733770494</v>
+        <v>0.2771305381131279</v>
       </c>
       <c r="J3">
-        <v>0.4792290733770494</v>
+        <v>0.2771305381131279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.35260721635164</v>
+        <v>0.103879</v>
       </c>
       <c r="N3">
-        <v>1.35260721635164</v>
+        <v>0.311637</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.002836740232224432</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.002836740232224432</v>
       </c>
       <c r="Q3">
-        <v>86.23592457187162</v>
+        <v>3.930066568601</v>
       </c>
       <c r="R3">
-        <v>86.23592457187162</v>
+        <v>35.370599117409</v>
       </c>
       <c r="S3">
-        <v>0.4792290733770494</v>
+        <v>0.0007861473470435163</v>
       </c>
       <c r="T3">
-        <v>0.4792290733770494</v>
+        <v>0.0007861473470435163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.5322086178865</v>
+        <v>63.88336466666667</v>
       </c>
       <c r="H4">
-        <v>34.5322086178865</v>
+        <v>191.650094</v>
       </c>
       <c r="I4">
-        <v>0.2595679036181269</v>
+        <v>0.4679506129682439</v>
       </c>
       <c r="J4">
-        <v>0.2595679036181269</v>
+        <v>0.467950612968244</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.35260721635164</v>
+        <v>36.51526533333334</v>
       </c>
       <c r="N4">
-        <v>1.35260721635164</v>
+        <v>109.545796</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9971632597677756</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9971632597677755</v>
       </c>
       <c r="Q4">
-        <v>46.70851457311358</v>
+        <v>2332.718011189425</v>
       </c>
       <c r="R4">
-        <v>46.70851457311358</v>
+        <v>20994.46210070483</v>
       </c>
       <c r="S4">
-        <v>0.2595679036181269</v>
+        <v>0.4666231586377428</v>
       </c>
       <c r="T4">
-        <v>0.2595679036181269</v>
+        <v>0.4666231586377428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>63.88336466666667</v>
+      </c>
+      <c r="H5">
+        <v>191.650094</v>
+      </c>
+      <c r="I5">
+        <v>0.4679506129682439</v>
+      </c>
+      <c r="J5">
+        <v>0.467950612968244</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.103879</v>
+      </c>
+      <c r="N5">
+        <v>0.311637</v>
+      </c>
+      <c r="O5">
+        <v>0.002836740232224432</v>
+      </c>
+      <c r="P5">
+        <v>0.002836740232224432</v>
+      </c>
+      <c r="Q5">
+        <v>6.636140038208667</v>
+      </c>
+      <c r="R5">
+        <v>59.72526034387801</v>
+      </c>
+      <c r="S5">
+        <v>0.001327454330501102</v>
+      </c>
+      <c r="T5">
+        <v>0.001327454330501102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>34.80083866666666</v>
+      </c>
+      <c r="H6">
+        <v>104.402516</v>
+      </c>
+      <c r="I6">
+        <v>0.2549188489186281</v>
+      </c>
+      <c r="J6">
+        <v>0.2549188489186282</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>36.51526533333334</v>
+      </c>
+      <c r="N6">
+        <v>109.545796</v>
+      </c>
+      <c r="O6">
+        <v>0.9971632597677756</v>
+      </c>
+      <c r="P6">
+        <v>0.9971632597677755</v>
+      </c>
+      <c r="Q6">
+        <v>1270.76185773586</v>
+      </c>
+      <c r="R6">
+        <v>11436.85671962274</v>
+      </c>
+      <c r="S6">
+        <v>0.2541957103639483</v>
+      </c>
+      <c r="T6">
+        <v>0.2541957103639484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>34.80083866666666</v>
+      </c>
+      <c r="H7">
+        <v>104.402516</v>
+      </c>
+      <c r="I7">
+        <v>0.2549188489186281</v>
+      </c>
+      <c r="J7">
+        <v>0.2549188489186282</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.103879</v>
+      </c>
+      <c r="N7">
+        <v>0.311637</v>
+      </c>
+      <c r="O7">
+        <v>0.002836740232224432</v>
+      </c>
+      <c r="P7">
+        <v>0.002836740232224432</v>
+      </c>
+      <c r="Q7">
+        <v>3.615076319854666</v>
+      </c>
+      <c r="R7">
+        <v>32.535686878692</v>
+      </c>
+      <c r="S7">
+        <v>0.000723138554679814</v>
+      </c>
+      <c r="T7">
+        <v>0.0007231385546798142</v>
       </c>
     </row>
   </sheetData>
